--- a/R_C14_rates calculation/group_rates_output/NPP_cold_standard.xlsx
+++ b/R_C14_rates calculation/group_rates_output/NPP_cold_standard.xlsx
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="J24">
-        <v>17.46288896695951</v>
+        <v>32.84041139361599</v>
       </c>
       <c r="K24">
-        <v>5.138861498107192</v>
+        <v>37.66615382688455</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="J25">
-        <v>18.21879846068503</v>
+        <v>25.28784299389661</v>
       </c>
       <c r="K25">
-        <v>4.979269526116286</v>
+        <v>44.12735615406082</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1646,10 +1646,10 @@
         </is>
       </c>
       <c r="J26">
-        <v>15.31715164327182</v>
+        <v>31.15424203772959</v>
       </c>
       <c r="K26">
-        <v>4.693391732810835</v>
+        <v>68.01046393925449</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="J27">
-        <v>32.84041139361599</v>
+        <v>17.46288896695951</v>
       </c>
       <c r="K27">
-        <v>37.66615382688455</v>
+        <v>5.138861498107192</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="J28">
-        <v>25.28784299389661</v>
+        <v>18.21879846068503</v>
       </c>
       <c r="K28">
-        <v>44.12735615406082</v>
+        <v>4.979269526116286</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="J29">
-        <v>31.15424203772959</v>
+        <v>15.31715164327182</v>
       </c>
       <c r="K29">
-        <v>68.01046393925449</v>
+        <v>4.693391732810835</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
